--- a/src/VNEXT/Dora.School/wwwroot/template/Papers.xlsx
+++ b/src/VNEXT/Dora.School/wwwroot/template/Papers.xlsx
@@ -5,14 +5,14 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/craze-pc/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/craze-pc/Projects/Dora/src/VNEXT/Dora.School/wwwroot/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
-    <sheet name="Survey" sheetId="1" r:id="rId1"/>
+    <sheet name="Papers" sheetId="1" r:id="rId1"/>
     <sheet name="说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
@@ -754,9 +754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
